--- a/整理表格/现货历史成交记录简版.xlsx
+++ b/整理表格/现货历史成交记录简版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/antbot-binance-weiquan/整理表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0415BD-D7D1-534D-9A00-02B15813D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729F7591-5EB8-0242-AB95-C46C136E3D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1000" windowWidth="24540" windowHeight="13380" xr2:uid="{0BA8689F-D542-F74A-AAE9-23D095FC7D56}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
   <si>
     <t>市场</t>
   </si>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>时间(UTC)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现货历史成交记录简版</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +295,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -303,6 +308,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -310,6 +316,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -343,13 +365,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +392,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,10 +716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:H17"/>
+      <selection activeCell="E8" sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -697,56 +734,42 @@
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="45">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -763,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -789,16 +812,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -815,13 +838,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
@@ -832,22 +855,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
@@ -867,13 +890,13 @@
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -884,22 +907,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -919,16 +942,16 @@
         <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -945,16 +968,16 @@
         <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -962,22 +985,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>14</v>
@@ -997,13 +1020,13 @@
         <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>14</v>
@@ -1023,16 +1046,16 @@
         <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1040,25 +1063,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1066,48 +1089,48 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
@@ -1118,28 +1141,57 @@
         <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
